--- a/Training metrics.xlsx
+++ b/Training metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mawuliagamah/gitprojects/causal_inference/causal_inference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F8389-7D40-2E40-A615-B9FB0FC25144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9BD2D-A5AC-F840-B023-51807260D546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5620" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2E4921A9-D12D-FF43-AF7D-FC9D40598DD0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="50">
   <si>
     <t>Logit</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Performance of model on CPS comparison group relative to CPS comparison group for Dehejia and Wahba Subsample</t>
+  </si>
+  <si>
+    <t>Logloss</t>
+  </si>
+  <si>
+    <t>log loss</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBE6DCA-7122-BF4F-8605-ABA26D2DF7CA}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="16"/>
@@ -2137,31 +2143,31 @@
       </c>
       <c r="D15" s="97">
         <f>XGBOOST!D$4</f>
-        <v>0</v>
+        <v>0.16398799999999999</v>
       </c>
       <c r="E15" s="97">
         <f>XGBOOST!E$4</f>
-        <v>0</v>
+        <v>2.7085999999999999E-2</v>
       </c>
       <c r="F15" s="97">
         <f>XGBOOST!F$4</f>
-        <v>0</v>
+        <v>0.92826799999999998</v>
       </c>
       <c r="G15" s="102">
         <f>XGBOOST!G$4</f>
-        <v>0</v>
+        <v>0.92826799999999998</v>
       </c>
       <c r="H15" s="97">
         <f>XGBOOST!H$4</f>
-        <v>0</v>
+        <v>0.64172899999999999</v>
       </c>
       <c r="I15" s="104">
         <f>XGBOOST!I$4</f>
-        <v>0</v>
+        <v>0.62882700000000002</v>
       </c>
       <c r="J15" s="129">
         <f>(-(D15+E15)+F15+G15+H15+I15)/6</f>
-        <v>0</v>
+        <v>0.48933633333333332</v>
       </c>
       <c r="K15" s="87"/>
       <c r="M15" s="9"/>
@@ -2174,31 +2180,31 @@
       <c r="C16" s="107"/>
       <c r="D16" s="98">
         <f>XGBOOST!D$6</f>
-        <v>0</v>
+        <v>8.8970999999999995E-2</v>
       </c>
       <c r="E16" s="98">
         <f>XGBOOST!E$6</f>
-        <v>0</v>
+        <v>8.0649999999999993E-3</v>
       </c>
       <c r="F16" s="98">
         <f>XGBOOST!F$6</f>
-        <v>0</v>
+        <v>0.96041100000000001</v>
       </c>
       <c r="G16" s="103">
         <f>XGBOOST!G$6</f>
-        <v>0</v>
+        <v>0.96041100000000001</v>
       </c>
       <c r="H16" s="95">
         <f>XGBOOST!H$6</f>
-        <v>0</v>
+        <v>0.79433500000000001</v>
       </c>
       <c r="I16" s="57">
         <f>XGBOOST!I$6</f>
-        <v>0</v>
+        <v>0.79032400000000003</v>
       </c>
       <c r="J16" s="130">
         <f>(-(D16+E16)+F16+G16+H16+I16)/6</f>
-        <v>0</v>
+        <v>0.56807416666666677</v>
       </c>
       <c r="K16" s="90"/>
       <c r="M16" s="9"/>
@@ -2213,31 +2219,31 @@
       </c>
       <c r="D17" s="99">
         <f>XGBOOST!D$5</f>
-        <v>0</v>
+        <v>0.244338</v>
       </c>
       <c r="E17" s="99">
         <f>XGBOOST!E$5</f>
-        <v>0</v>
+        <v>6.0864000000000001E-2</v>
       </c>
       <c r="F17" s="99">
         <f>XGBOOST!F$5</f>
-        <v>0</v>
+        <v>0.90261100000000005</v>
       </c>
       <c r="G17" s="99">
         <f>XGBOOST!G$5</f>
-        <v>0</v>
+        <v>0.90261100000000005</v>
       </c>
       <c r="H17" s="96">
         <f>XGBOOST!H$5</f>
-        <v>0</v>
+        <v>0.75227100000000002</v>
       </c>
       <c r="I17" s="83">
         <f>XGBOOST!I$5</f>
-        <v>0</v>
+        <v>0.71847099999999997</v>
       </c>
       <c r="J17" s="129">
         <f>(-(D17+E17)+F17+G17+H17+I17)/6</f>
-        <v>0</v>
+        <v>0.49512700000000004</v>
       </c>
       <c r="K17" s="87"/>
       <c r="M17" s="9"/>
@@ -2250,31 +2256,31 @@
       <c r="C18" s="115"/>
       <c r="D18" s="111">
         <f>XGBOOST!D$7</f>
-        <v>0</v>
+        <v>0.20488300000000001</v>
       </c>
       <c r="E18" s="111">
         <f>XGBOOST!E$7</f>
-        <v>0</v>
+        <v>4.2237999999999998E-2</v>
       </c>
       <c r="F18" s="111">
         <f>XGBOOST!F$7</f>
-        <v>0</v>
+        <v>0.94094900000000004</v>
       </c>
       <c r="G18" s="111">
         <f>XGBOOST!G$7</f>
-        <v>0</v>
+        <v>0.94094900000000004</v>
       </c>
       <c r="H18" s="111">
         <f>XGBOOST!H$7</f>
-        <v>0</v>
+        <v>0.74582400000000004</v>
       </c>
       <c r="I18" s="164">
         <f>XGBOOST!I$7</f>
-        <v>0</v>
+        <v>0.72373500000000002</v>
       </c>
       <c r="J18" s="130">
         <f>(-(D18+E18)+F18+G18+H18+I18)/6</f>
-        <v>0</v>
+        <v>0.51738933333333337</v>
       </c>
       <c r="K18" s="90"/>
       <c r="M18" s="9"/>
@@ -2291,19 +2297,19 @@
       </c>
       <c r="D19" s="97">
         <f>ANN!D$4</f>
-        <v>0</v>
+        <v>0.16517299999999999</v>
       </c>
       <c r="E19" s="97">
         <f>ANN!E$4</f>
-        <v>0</v>
+        <v>2.7283000000000002E-2</v>
       </c>
       <c r="F19" s="97">
         <f>ANN!F$4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="97">
         <f>ANN!G$4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="97">
         <f>ANN!H$4</f>
@@ -2315,7 +2321,7 @@
       </c>
       <c r="J19" s="129">
         <f>(-(D19+E19)+F19+G19+H19+I19)/6</f>
-        <v>0</v>
+        <v>0.13459066666666666</v>
       </c>
       <c r="K19" s="87"/>
       <c r="M19" s="9"/>
@@ -2328,19 +2334,19 @@
       <c r="C20" s="115"/>
       <c r="D20" s="95">
         <f>ANN!D$6</f>
-        <v>0</v>
+        <v>0.12894</v>
       </c>
       <c r="E20" s="95">
         <f>ANN!E$6</f>
-        <v>0</v>
+        <v>1.6628E-2</v>
       </c>
       <c r="F20" s="95">
         <f>ANN!F$6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="95">
         <f>ANN!G$6</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="95">
         <f>ANN!H$6</f>
@@ -2352,7 +2358,7 @@
       </c>
       <c r="J20" s="130">
         <f>(-(D20+E20)+F20+G20+H20+I20)/6</f>
-        <v>0</v>
+        <v>0.14240533333333333</v>
       </c>
       <c r="K20" s="87"/>
       <c r="M20" s="9"/>
@@ -2367,19 +2373,19 @@
       </c>
       <c r="D21" s="96">
         <f>ANN!D$5</f>
-        <v>0</v>
+        <v>0.32665</v>
       </c>
       <c r="E21" s="96">
         <f>ANN!E$5</f>
-        <v>0</v>
+        <v>0.10670200000000001</v>
       </c>
       <c r="F21" s="96">
         <f>ANN!F$5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="96">
         <f>ANN!G$5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="96">
         <f>ANN!H$5</f>
@@ -2391,7 +2397,7 @@
       </c>
       <c r="J21" s="129">
         <f>(-(D21+E21)+F21+G21+H21+I21)/6</f>
-        <v>0</v>
+        <v>9.4441333333333335E-2</v>
       </c>
       <c r="K21" s="87"/>
       <c r="M21" s="9"/>
@@ -2404,19 +2410,19 @@
       <c r="C22" s="109"/>
       <c r="D22" s="111">
         <f>ANN!D$7</f>
-        <v>0</v>
+        <v>0.25917600000000002</v>
       </c>
       <c r="E22" s="111">
         <f>ANN!E$7</f>
-        <v>0</v>
+        <v>6.7176E-2</v>
       </c>
       <c r="F22" s="111">
         <f>ANN!F$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="111">
         <f>ANN!G$7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="111">
         <f>ANN!H$7</f>
@@ -2428,7 +2434,7 @@
       </c>
       <c r="J22" s="131">
         <f>(-(D22+E22)+F22+G22+H22+I22)/6</f>
-        <v>0</v>
+        <v>0.11227466666666668</v>
       </c>
       <c r="K22" s="91"/>
       <c r="M22" s="9"/>
@@ -3388,7 +3394,7 @@
     <mergeCell ref="C11:C12"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3400,6 +3406,126 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E14">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I14">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E14">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E34">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -3411,55 +3537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H14">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:E14">
+  <conditionalFormatting sqref="F30:F34">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3471,8 +3549,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E14">
+  <conditionalFormatting sqref="G30:G34">
     <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H34">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3483,8 +3573,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
+  <conditionalFormatting sqref="I30:I34">
     <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3495,19 +3597,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J22">
+  <conditionalFormatting sqref="D38:D42">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
+  <conditionalFormatting sqref="E38:E42">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -3519,19 +3621,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E34">
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G42">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H42">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
+  <conditionalFormatting sqref="I38:I42">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -3543,8 +3669,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G34">
+  <conditionalFormatting sqref="J38:J42">
     <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D50">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3555,8 +3693,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H34">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="E46:E50">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:F50">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3567,8 +3717,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I34">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="G46:G50">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3579,44 +3729,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J34">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D42">
+  <conditionalFormatting sqref="H46:H50">
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E42">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3627,7 +3741,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G42">
+  <conditionalFormatting sqref="I46:I50">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:J50">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3639,31 +3765,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H42">
+  <conditionalFormatting sqref="D54:D58">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I42">
+  <conditionalFormatting sqref="E54:E58">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J42">
+  <conditionalFormatting sqref="F54:F58">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3675,31 +3801,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D50">
+  <conditionalFormatting sqref="G54:G58">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46:E50">
+  <conditionalFormatting sqref="H54:H58">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:F50">
+  <conditionalFormatting sqref="I54:I58">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3711,7 +3837,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G50">
+  <conditionalFormatting sqref="J54:J58">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3723,43 +3849,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H50">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I50">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J50">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D58">
+  <conditionalFormatting sqref="D3:D22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3771,7 +3861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E58">
+  <conditionalFormatting sqref="E3:E22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3783,7 +3873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F58">
+  <conditionalFormatting sqref="F3:F22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3795,7 +3885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G58">
+  <conditionalFormatting sqref="G3:G22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3807,7 +3897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H58">
+  <conditionalFormatting sqref="H3:H22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3819,20 +3909,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I58">
+  <conditionalFormatting sqref="I3:I22">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J58">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3853,7 +3931,7 @@
   <dimension ref="A2:P63"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8857,15 +8935,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3434C1-7CE1-4949-A735-AF96329ED07C}">
-  <dimension ref="B2:I63"/>
+  <dimension ref="B2:P64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:H52"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:16">
       <c r="B2" s="40" t="s">
         <v>36</v>
       </c>
@@ -8877,7 +8955,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:16">
       <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
@@ -8903,7 +8981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:16">
       <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
@@ -8912,60 +8990,60 @@
       </c>
       <c r="D4" s="35">
         <f>H21</f>
-        <v>0</v>
+        <v>0.16398799999999999</v>
       </c>
       <c r="E4" s="35">
         <f>H15</f>
-        <v>0</v>
+        <v>2.7085999999999999E-2</v>
       </c>
       <c r="F4" s="35">
         <f>H18</f>
-        <v>0</v>
+        <v>0.92826799999999998</v>
       </c>
       <c r="G4" s="35">
         <f>H11</f>
-        <v>0</v>
+        <v>0.92826799999999998</v>
       </c>
       <c r="H4" s="35">
         <f>H19</f>
-        <v>0</v>
+        <v>0.64172899999999999</v>
       </c>
       <c r="I4" s="36">
         <f>H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>0.62882700000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="35">
         <f>H35</f>
-        <v>0</v>
+        <v>0.244338</v>
       </c>
       <c r="E5" s="35">
         <f>H29</f>
-        <v>0</v>
+        <v>6.0864000000000001E-2</v>
       </c>
       <c r="F5" s="35">
         <f>H32</f>
-        <v>0</v>
+        <v>0.90261100000000005</v>
       </c>
       <c r="G5" s="35">
         <f>H25</f>
-        <v>0</v>
+        <v>0.90261100000000005</v>
       </c>
       <c r="H5" s="35">
         <f>H33</f>
-        <v>0</v>
+        <v>0.75227100000000002</v>
       </c>
       <c r="I5" s="36">
         <f>H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>0.71847099999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
@@ -8974,60 +9052,60 @@
       </c>
       <c r="D6" s="35">
         <f>H49</f>
-        <v>0</v>
+        <v>8.8970999999999995E-2</v>
       </c>
       <c r="E6" s="35">
         <f>H42</f>
-        <v>0</v>
+        <v>8.0649999999999993E-3</v>
       </c>
       <c r="F6" s="35">
         <f>H46</f>
-        <v>0</v>
+        <v>0.96041100000000001</v>
       </c>
       <c r="G6" s="35">
         <f>H39</f>
-        <v>0</v>
+        <v>0.96041100000000001</v>
       </c>
       <c r="H6" s="35">
         <f>H47</f>
-        <v>0</v>
+        <v>0.79433500000000001</v>
       </c>
       <c r="I6" s="36">
         <f>H48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+        <v>0.79032400000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="47">
         <f>H63</f>
-        <v>0</v>
+        <v>0.20488300000000001</v>
       </c>
       <c r="E7" s="47">
         <f>H57</f>
-        <v>0</v>
+        <v>4.2237999999999998E-2</v>
       </c>
       <c r="F7" s="47">
         <f>H60</f>
-        <v>0</v>
+        <v>0.94094900000000004</v>
       </c>
       <c r="G7" s="47">
         <f>H53</f>
-        <v>0</v>
+        <v>0.94094900000000004</v>
       </c>
       <c r="H7" s="47">
         <f>H61</f>
-        <v>0</v>
+        <v>0.74582400000000004</v>
       </c>
       <c r="I7" s="48">
         <f>H62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
+        <v>0.72373500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -9037,7 +9115,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:16">
       <c r="B9" s="49" t="s">
         <v>32</v>
       </c>
@@ -9049,7 +9127,7 @@
       <c r="H9" s="51"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:16">
       <c r="B10" s="25"/>
       <c r="C10" s="26">
         <v>0</v>
@@ -9071,130 +9149,490 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:16">
       <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="C11" s="6">
+        <v>0.93782100000000002</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.89982799999999996</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.94744200000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.92319899999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.93304900000000002</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.92826799999999998</v>
+      </c>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="6">
+        <v>0.59523800000000004</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.51685400000000004</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.44347799999999998</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.50711399999999995</v>
+      </c>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.93782100000000002</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.89982799999999996</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.94744200000000001</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0.92319899999999999</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0.93304900000000002</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.92826799999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="C13" s="6">
+        <v>0.89285700000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.82142899999999996</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.92727300000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.87272700000000003</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.89090899999999995</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.88103900000000002</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.59523800000000004</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.51685400000000004</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.44347799999999998</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.50711399999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="C14" s="6">
+        <v>1.9695000000000001E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.6096000000000001E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.3480999999999997E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.9064E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.7085999999999999E-2</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.89285700000000001</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.82142899999999996</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.92727300000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0.87272700000000003</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.89090899999999995</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.88103900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="C15" s="6">
+        <v>1.9695000000000001E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.6096000000000001E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3.3480999999999997E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.9064E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.7085999999999999E-2</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.9695000000000001E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2.6096000000000001E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3.3480999999999997E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2.9064E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>2.7085999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="6">
+        <v>0.265461</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2.6735999999999999E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-0.27077699999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.102601</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-2.7848000000000001E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-2.1805999999999999E-2</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.9695000000000001E-2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2.6096000000000001E-2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3.3480999999999997E-2</v>
+      </c>
+      <c r="N16" s="6">
+        <v>2.9064E-2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="P16" s="6">
+        <v>2.7085999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.265461</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2.6735999999999999E-2</v>
+      </c>
+      <c r="M17" s="6">
+        <v>-0.27077699999999999</v>
+      </c>
+      <c r="N17" s="6">
+        <v>-0.102601</v>
+      </c>
+      <c r="O17" s="6">
+        <v>-2.7848000000000001E-2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>-2.1805999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="C18" s="6">
+        <v>0.93782100000000002</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.89982799999999996</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.94744200000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.92319899999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.93304900000000002</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.92826799999999998</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="C19" s="6">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.63448300000000002</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.61935499999999999</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.64052299999999995</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.64172899999999999</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.93782100000000002</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.89982799999999996</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.94744200000000001</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.92319899999999999</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.93304900000000002</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.92826799999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="C20" s="6">
+        <v>0.70450900000000005</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.62167700000000004</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.58478699999999995</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.60556600000000005</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.62759699999999996</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.62882700000000002</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.71428599999999998</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.63448300000000002</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.61935499999999999</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.64052299999999995</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0.64172899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="C21" s="6">
+        <v>0.14033799999999999</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.16154099999999999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.182978</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.17048199999999999</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.164601</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.16398799999999999</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.70450900000000005</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.62167700000000004</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.58478699999999995</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.60556600000000005</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.62759699999999996</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.62882700000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -9202,8 +9640,29 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="J22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.14033799999999999</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.16154099999999999</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.182978</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.17048199999999999</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.164601</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.16398799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="49" t="s">
         <v>33</v>
       </c>
@@ -9214,7 +9673,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:16">
       <c r="B24" s="24"/>
       <c r="C24" s="26">
         <v>0</v>
@@ -9235,128 +9694,488 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:16">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="C25" s="6">
+        <v>0.89701399999999998</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.84231299999999998</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.92962400000000001</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.93252400000000002</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.91157900000000003</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.90261100000000005</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.89701399999999998</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.84231299999999998</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.92962400000000001</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0.93252400000000002</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0.91157900000000003</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0.90261100000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="C26" s="6">
+        <v>0.69117600000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.65079399999999998</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.56521699999999997</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.80327899999999997</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.67605599999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.67730500000000005</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.69117600000000001</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.65079399999999998</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.56521699999999997</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.80327899999999997</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.67605599999999999</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.67730500000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="C27" s="6">
+        <v>0.83928599999999998</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.73214299999999999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.94545500000000005</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.89090899999999995</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.87272700000000003</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.85610399999999998</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.83928599999999998</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.73214299999999999</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.94545500000000005</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.89090899999999995</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0.87272700000000003</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0.85610399999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="C28" s="6">
+        <v>5.7692E-2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>7.1290999999999993E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>8.2851999999999995E-2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3.4681999999999998E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5.7803E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>6.0864000000000001E-2</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="6">
+        <v>5.7692E-2</v>
+      </c>
+      <c r="L28" s="6">
+        <v>7.1290999999999993E-2</v>
+      </c>
+      <c r="M28" s="6">
+        <v>8.2851999999999995E-2</v>
+      </c>
+      <c r="N28" s="6">
+        <v>3.4681999999999998E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <v>5.7803E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <v>6.0864000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="C29" s="6">
+        <v>5.7692E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7.1290999999999993E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>8.2851999999999995E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3.4681999999999998E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5.7803E-2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>6.0864000000000001E-2</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="6">
+        <v>5.7692E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <v>7.1290999999999993E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>8.2851999999999995E-2</v>
+      </c>
+      <c r="N29" s="6">
+        <v>3.4681999999999998E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <v>5.7803E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <v>6.0864000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="C30" s="6">
+        <v>0.39963100000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.25937199999999999</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.12550900000000001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.633934</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.38989000000000001</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.36166700000000002</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.39963100000000001</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.25937199999999999</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.12550900000000001</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.633934</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.38989000000000001</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0.36166700000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="C32" s="6">
+        <v>0.89701399999999998</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.84231299999999998</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.92962400000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.93252400000000002</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.91157900000000003</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.90261100000000005</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.89701399999999998</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.84231299999999998</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.92962400000000001</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.93252400000000002</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.91157900000000003</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.90261100000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="C33" s="6">
+        <v>0.75806499999999999</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.68907600000000002</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.70748299999999997</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.84482800000000002</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.76190500000000005</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.75227100000000002</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.75806499999999999</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.68907600000000002</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.70748299999999997</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.84482800000000002</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.76190500000000005</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.75227100000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="C34" s="6">
+        <v>0.725661</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.64897199999999999</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.662748</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.82536399999999999</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.72961200000000004</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.71847099999999997</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.725661</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.64897199999999999</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.662748</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.82536399999999999</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.72961200000000004</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0.71847099999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="C35" s="6">
+        <v>0.24019199999999999</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.26700400000000002</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.28783999999999998</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.18623100000000001</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.240424</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.244338</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.24019199999999999</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.26700400000000002</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.28783999999999998</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.18623100000000001</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0.240424</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0.244338</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -9364,7 +10183,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:16">
       <c r="B37" s="52" t="s">
         <v>34</v>
       </c>
@@ -9375,7 +10194,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:16">
       <c r="B38" s="28"/>
       <c r="C38" s="26">
         <v>0</v>
@@ -9396,128 +10215,488 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:16">
       <c r="B39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="C39" s="6">
+        <v>0.98124299999999998</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.96628400000000003</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.93509200000000003</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.982823</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.93660900000000002</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.96041100000000001</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.98124299999999998</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.96628400000000003</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.93509200000000003</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0.982823</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.93660900000000002</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0.96041100000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
       <c r="B40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="C40" s="6">
+        <v>0.67346899999999998</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.653061</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.63043499999999997</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.69639300000000004</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0.67346899999999998</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.653061</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0.63043499999999997</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0.69639300000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="C41" s="6">
+        <v>0.97058800000000001</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.94117600000000001</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.96969700000000003</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.92780700000000005</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.97058800000000001</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.94117600000000001</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0.96969700000000003</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0.92780700000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="C42" s="6">
+        <v>8.4620000000000008E-3</v>
+      </c>
+      <c r="D42" s="6">
+        <v>9.4570000000000001E-3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.0453E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4.4819999999999999E-3</v>
+      </c>
+      <c r="G42" s="6">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="H42" s="6">
+        <v>8.0649999999999993E-3</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="6">
+        <v>8.4620000000000008E-3</v>
+      </c>
+      <c r="L42" s="6">
+        <v>9.4570000000000001E-3</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1.0453E-2</v>
+      </c>
+      <c r="N42" s="6">
+        <v>4.4819999999999999E-3</v>
+      </c>
+      <c r="O42" s="6">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="P42" s="6">
+        <v>8.0649999999999993E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="C43" s="6">
+        <v>8.4620000000000008E-3</v>
+      </c>
+      <c r="D43" s="6">
+        <v>9.4570000000000001E-3</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.0453E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4.4819999999999999E-3</v>
+      </c>
+      <c r="G43" s="6">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="H43" s="6">
+        <v>8.0649999999999993E-3</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="6">
+        <v>8.4620000000000008E-3</v>
+      </c>
+      <c r="L43" s="6">
+        <v>9.4570000000000001E-3</v>
+      </c>
+      <c r="M43" s="6">
+        <v>1.0453E-2</v>
+      </c>
+      <c r="N43" s="6">
+        <v>4.4819999999999999E-3</v>
+      </c>
+      <c r="O43" s="6">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="P43" s="6">
+        <v>8.0649999999999993E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="C44" s="6">
+        <v>0.491392</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.431556</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.35300900000000002</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.72271600000000003</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.53786</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.50730699999999995</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.491392</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.431556</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.35300900000000002</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.72271600000000003</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0.53786</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0.50730699999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="C45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
       <c r="B46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="C46" s="6">
+        <v>0.98124299999999998</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.96628400000000003</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.93509200000000003</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.982823</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.93660900000000002</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.96041100000000001</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.98124299999999998</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.96628400000000003</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.93509200000000003</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0.982823</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0.93660900000000002</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0.96041100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="C47" s="6">
+        <v>0.79518100000000003</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.77108399999999999</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.73417699999999997</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.87671200000000005</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.79452100000000003</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.79433500000000001</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.79518100000000003</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.77108399999999999</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.73417699999999997</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0.87671200000000005</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0.79452100000000003</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0.79433500000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="C48" s="6">
+        <v>0.79100400000000004</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.76641700000000001</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.728993</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.87445099999999998</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.79075200000000001</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.79032400000000003</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.79100400000000004</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.76641700000000001</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.728993</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0.87445099999999998</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0.79075200000000001</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0.79032400000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="C49" s="6">
+        <v>9.1989000000000001E-2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>9.7249000000000002E-2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.10224</v>
+      </c>
+      <c r="F49" s="6">
+        <v>6.6947999999999994E-2</v>
+      </c>
+      <c r="G49" s="6">
+        <v>8.6430000000000007E-2</v>
+      </c>
+      <c r="H49" s="6">
+        <v>8.8970999999999995E-2</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="6">
+        <v>9.1989000000000001E-2</v>
+      </c>
+      <c r="L49" s="6">
+        <v>9.7249000000000002E-2</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.10224</v>
+      </c>
+      <c r="N49" s="6">
+        <v>6.6947999999999994E-2</v>
+      </c>
+      <c r="O49" s="6">
+        <v>8.6430000000000007E-2</v>
+      </c>
+      <c r="P49" s="6">
+        <v>8.8970999999999995E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -9525,7 +10704,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:16">
       <c r="B51" s="52" t="s">
         <v>35</v>
       </c>
@@ -9536,7 +10715,7 @@
       <c r="G51" s="38"/>
       <c r="H51" s="39"/>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:16">
       <c r="B52" s="15"/>
       <c r="C52" s="26">
         <v>0</v>
@@ -9556,127 +10735,516 @@
       <c r="H52" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5">
+        <v>2</v>
+      </c>
+      <c r="M52" s="5">
+        <v>3</v>
+      </c>
+      <c r="N52" s="5">
+        <v>4</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16">
       <c r="B53" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="C53" s="6">
+        <v>0.97952600000000001</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.95330999999999999</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.91784200000000005</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.93838200000000005</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.91568700000000003</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.94094900000000004</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.97952600000000001</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.95330999999999999</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0.91784200000000005</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0.93838200000000005</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0.91568700000000003</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0.94094900000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
       <c r="B54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="C54" s="6">
+        <v>0.641509</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.59183699999999995</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.56862699999999999</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.62706099999999998</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.641509</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.59183699999999995</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0.56862699999999999</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0.62706099999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16">
       <c r="B55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.94117600000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.92156899999999997</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.94117600000000001</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0.90909099999999998</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0.87878800000000001</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0.92156899999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16">
       <c r="B56" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="C56" s="6">
+        <v>3.8152999999999999E-2</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>4.829E-2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="G56" s="6">
+        <v>5.2313999999999999E-2</v>
+      </c>
+      <c r="H56" s="6">
+        <v>4.2237999999999998E-2</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="6">
+        <v>3.8152999999999999E-2</v>
+      </c>
+      <c r="L56" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="M56" s="6">
+        <v>4.829E-2</v>
+      </c>
+      <c r="N56" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="O56" s="6">
+        <v>5.2313999999999999E-2</v>
+      </c>
+      <c r="P56" s="6">
+        <v>4.2237999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
       <c r="B57" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="C57" s="6">
+        <v>3.8152999999999999E-2</v>
+      </c>
+      <c r="D57" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>4.829E-2</v>
+      </c>
+      <c r="F57" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="G57" s="6">
+        <v>5.2313999999999999E-2</v>
+      </c>
+      <c r="H57" s="6">
+        <v>4.2237999999999998E-2</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" s="6">
+        <v>3.8152999999999999E-2</v>
+      </c>
+      <c r="L57" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="M57" s="6">
+        <v>4.829E-2</v>
+      </c>
+      <c r="N57" s="6">
+        <v>3.6216999999999999E-2</v>
+      </c>
+      <c r="O57" s="6">
+        <v>5.2313999999999999E-2</v>
+      </c>
+      <c r="P57" s="6">
+        <v>4.2237999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16">
       <c r="B58" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="C58" s="6">
+        <v>0.40022799999999997</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.43171100000000001</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.221003</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.41575200000000001</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.156087</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.32495600000000002</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.40022799999999997</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.43171100000000001</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0.221003</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0.41575200000000001</v>
+      </c>
+      <c r="O58" s="6">
+        <v>0.156087</v>
+      </c>
+      <c r="P58" s="6">
+        <v>0.32495600000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16">
       <c r="B59" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16">
       <c r="B60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="C60" s="6">
+        <v>0.97952600000000001</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.95330999999999999</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.91784200000000005</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.93838200000000005</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.91568700000000003</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.94094900000000004</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.97952600000000001</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.95330999999999999</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0.91784200000000005</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0.93838200000000005</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0.91568700000000003</v>
+      </c>
+      <c r="P60" s="6">
+        <v>0.94094900000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
       <c r="B61" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="C61" s="6">
+        <v>0.781609</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.78048799999999996</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.70731699999999997</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.769231</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0.69047599999999998</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0.74582400000000004</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.781609</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.78048799999999996</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0.70731699999999997</v>
+      </c>
+      <c r="N61" s="6">
+        <v>0.769231</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0.69047599999999998</v>
+      </c>
+      <c r="P61" s="6">
+        <v>0.74582400000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16">
       <c r="B62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="C62" s="6">
+        <v>0.76179399999999997</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.76137600000000005</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.68208999999999997</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.75008399999999997</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.66333200000000003</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0.72373500000000002</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.76179399999999997</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.76137600000000005</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0.68208999999999997</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0.75008399999999997</v>
+      </c>
+      <c r="O62" s="6">
+        <v>0.66333200000000003</v>
+      </c>
+      <c r="P62" s="6">
+        <v>0.72373500000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16">
       <c r="B63" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
+      <c r="C63" s="6">
+        <v>0.195327</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.190308</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.219749</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.190308</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.22872200000000001</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.20488300000000001</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.195327</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0.190308</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0.219749</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0.190308</v>
+      </c>
+      <c r="O63" s="6">
+        <v>0.22872200000000001</v>
+      </c>
+      <c r="P63" s="6">
+        <v>0.20488300000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9688,10 +11256,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FECA35C-1481-E642-B801-4029635777CC}">
-  <dimension ref="B2:I63"/>
+  <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:H52"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9700,7 +11268,7 @@
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:17">
       <c r="B2" s="40" t="s">
         <v>36</v>
       </c>
@@ -9712,7 +11280,7 @@
       <c r="H2" s="41"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:17">
       <c r="B3" s="31" t="s">
         <v>4</v>
       </c>
@@ -9738,7 +11306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:17">
       <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
@@ -9747,19 +11315,19 @@
       </c>
       <c r="D4" s="35">
         <f>H21</f>
-        <v>0</v>
+        <v>0.16517299999999999</v>
       </c>
       <c r="E4" s="35">
         <f>H15</f>
-        <v>0</v>
+        <v>2.7283000000000002E-2</v>
       </c>
       <c r="F4" s="35">
         <f>H18</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="35">
         <f>H11</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="35">
         <f>H19</f>
@@ -9770,26 +11338,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:17">
       <c r="B5" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="35">
         <f>H35</f>
-        <v>0</v>
+        <v>0.32665</v>
       </c>
       <c r="E5" s="35">
         <f>H29</f>
-        <v>0</v>
+        <v>0.10670200000000001</v>
       </c>
       <c r="F5" s="35">
         <f>H32</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="35">
         <f>H25</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="35">
         <f>H33</f>
@@ -9800,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:17">
       <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
@@ -9809,19 +11377,19 @@
       </c>
       <c r="D6" s="35">
         <f>H49</f>
-        <v>0</v>
+        <v>0.12894</v>
       </c>
       <c r="E6" s="35">
         <f>H42</f>
-        <v>0</v>
+        <v>1.6628E-2</v>
       </c>
       <c r="F6" s="35">
         <f>H46</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="35">
         <f>H39</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="35">
         <f>H47</f>
@@ -9832,26 +11400,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:17">
       <c r="B7" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="47">
         <f>H63</f>
-        <v>0</v>
+        <v>0.25917600000000002</v>
       </c>
       <c r="E7" s="47">
         <f>H57</f>
-        <v>0</v>
+        <v>6.7176E-2</v>
       </c>
       <c r="F7" s="47">
         <f>H60</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="47">
         <f>H53</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="47">
         <f>H61</f>
@@ -9862,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:17">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -9872,7 +11440,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:17">
       <c r="B9" s="49" t="s">
         <v>32</v>
       </c>
@@ -9884,7 +11452,7 @@
       <c r="H9" s="51"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:17">
       <c r="B10" s="25"/>
       <c r="C10" s="26">
         <v>0</v>
@@ -9906,139 +11474,348 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:17">
       <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="C11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
       <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="C14" s="6">
+        <v>2.708E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.7573E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.7573E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.7283000000000002E-2</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="C15" s="6">
+        <v>2.708E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2.7573E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.7573E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.7094E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.7283000000000002E-2</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="C16" s="6">
+        <v>-2.7834000000000001E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-2.8354000000000001E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-2.8354000000000001E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-2.7848000000000001E-2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-2.7848000000000001E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>-2.8048E-2</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="2:8">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.93531900000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.95232499999999998</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.95232499999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.93577999999999995</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.93577999999999995</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.94230599999999998</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="C18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="C21" s="6">
+        <v>0.16456100000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.16605</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.16605</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.164601</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.164601</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.16517299999999999</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="49" t="s">
         <v>33</v>
       </c>
@@ -10049,7 +11826,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:17">
       <c r="B24" s="24"/>
       <c r="C24" s="26">
         <v>0</v>
@@ -10070,136 +11847,351 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:17">
       <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="C25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="C28" s="6">
+        <v>0.107692</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.105973</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.105973</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.105973</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.1079</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.10670200000000001</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="C29" s="6">
+        <v>0.107692</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.105973</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.105973</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.105973</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.1079</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.10670200000000001</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17">
       <c r="B30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="C30" s="6">
+        <v>-0.12069000000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>-0.118534</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-0.118534</v>
+      </c>
+      <c r="F30" s="6">
+        <v>-0.118534</v>
+      </c>
+      <c r="G30" s="6">
+        <v>-0.12095</v>
+      </c>
+      <c r="H30" s="6">
+        <v>-0.119449</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17">
       <c r="B31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:8">
+        <v>49</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3.7195610000000001</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.6601789999999998</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3.6601789999999998</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3.6601789999999998</v>
+      </c>
+      <c r="G31" s="6">
+        <v>3.7267269999999999</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3.685365</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17">
       <c r="B32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="C32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="2:17">
       <c r="B33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="2:17">
       <c r="B34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="2:17">
       <c r="B35" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="C35" s="6">
+        <v>0.32816499999999998</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.32553500000000002</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.32553500000000002</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.32553500000000002</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.32848100000000002</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.32665</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="2:17">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="2:17">
       <c r="B37" s="52" t="s">
         <v>34</v>
       </c>
@@ -10210,7 +12202,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:17">
       <c r="B38" s="28"/>
       <c r="C38" s="26">
         <v>0</v>
@@ -10230,129 +12222,344 @@
       <c r="H38" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+    </row>
+    <row r="39" spans="2:17">
       <c r="B39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="C39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="2:17">
       <c r="B40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="2:17">
       <c r="B41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="2:17">
       <c r="B42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="C42" s="6">
+        <v>1.6426E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1.6924000000000002E-2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.6924000000000002E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1.6434000000000001E-2</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1.6434000000000001E-2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1.6628E-2</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="2:17">
       <c r="B43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="C43" s="6">
+        <v>1.6426E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1.6924000000000002E-2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.6924000000000002E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1.6434000000000001E-2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1.6434000000000001E-2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1.6628E-2</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="2:17">
       <c r="B44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="C44" s="6">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>-1.7215000000000001E-2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-1.7215000000000001E-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>-1.6709000000000002E-2</v>
+      </c>
+      <c r="G44" s="6">
+        <v>-1.6709000000000002E-2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>-1.6910000000000001E-2</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="2:17">
       <c r="B45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="C45" s="6">
+        <v>0.56733699999999998</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.58452899999999997</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.58452899999999997</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.56761899999999998</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.56761899999999998</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.57432700000000003</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="2:17">
       <c r="B46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="C46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="2:17">
       <c r="B47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="2:17">
       <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="2:17">
       <c r="B49" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="C49" s="6">
+        <v>0.128164</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.13009200000000001</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.13009200000000001</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.128196</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.128196</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.12894</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="2:17">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -10360,7 +12567,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:17">
       <c r="B51" s="52" t="s">
         <v>35</v>
       </c>
@@ -10370,8 +12577,14 @@
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="2:17">
       <c r="B52" s="15"/>
       <c r="C52" s="26">
         <v>0</v>
@@ -10391,127 +12604,329 @@
       <c r="H52" s="27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="2:17">
       <c r="B53" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="C53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="2:17">
       <c r="B54" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="20"/>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="C54" s="6">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="2:17">
       <c r="B55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="2:17">
       <c r="B56" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="20"/>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="C56" s="6">
+        <v>6.8273E-2</v>
+      </c>
+      <c r="D56" s="6">
+        <v>6.6397999999999999E-2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>6.6397999999999999E-2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>6.6397999999999999E-2</v>
+      </c>
+      <c r="G56" s="6">
+        <v>6.8409999999999999E-2</v>
+      </c>
+      <c r="H56" s="6">
+        <v>6.7176E-2</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="2:17">
       <c r="B57" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="20"/>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="C57" s="6">
+        <v>6.8273E-2</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6.6397999999999999E-2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>6.6397999999999999E-2</v>
+      </c>
+      <c r="F57" s="6">
+        <v>6.6397999999999999E-2</v>
+      </c>
+      <c r="G57" s="6">
+        <v>6.8409999999999999E-2</v>
+      </c>
+      <c r="H57" s="6">
+        <v>6.7176E-2</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="2:17">
       <c r="B58" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="20"/>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="C58" s="6">
+        <v>-7.3275999999999994E-2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>-7.1121000000000004E-2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>-7.1121000000000004E-2</v>
+      </c>
+      <c r="F58" s="6">
+        <v>-7.1121000000000004E-2</v>
+      </c>
+      <c r="G58" s="6">
+        <v>-7.3433999999999999E-2</v>
+      </c>
+      <c r="H58" s="6">
+        <v>-7.2013999999999995E-2</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="2:17">
       <c r="B59" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="20"/>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="C59" s="6">
+        <v>2.358069</v>
+      </c>
+      <c r="D59" s="6">
+        <v>2.2933189999999999</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2.2933189999999999</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2.2933189999999999</v>
+      </c>
+      <c r="G59" s="6">
+        <v>2.3628140000000002</v>
+      </c>
+      <c r="H59" s="6">
+        <v>2.3201679999999998</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="2:17">
       <c r="B60" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="20"/>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="C60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="2:17">
       <c r="B61" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="20"/>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="2:17">
       <c r="B62" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="20"/>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
       <c r="B63" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
+      <c r="C63" s="6">
+        <v>0.261291</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.25767899999999999</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.25767899999999999</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.25767899999999999</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.26155400000000001</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0.25917600000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
